--- a/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
+++ b/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="15900" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="User" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:R20"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>TestID</t>
   </si>
@@ -192,9 +192,6 @@
     <t>rashmi1234</t>
   </si>
   <si>
-    <t>Dr.supreeta</t>
-  </si>
-  <si>
     <t>Dr.John</t>
   </si>
   <si>
@@ -220,6 +217,15 @@
   </si>
   <si>
     <t>Basavangudi</t>
+  </si>
+  <si>
+    <t>supreeta</t>
+  </si>
+  <si>
+    <t>Previous Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -270,13 +276,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,9 +566,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -657,10 +665,10 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -672,38 +680,9 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25"/>
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -716,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +714,7 @@
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,14 +745,19 @@
       <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -787,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -801,8 +785,14 @@
       <c r="I3">
         <v>9937805564</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>44781</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
@@ -813,10 +803,10 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -825,21 +815,21 @@
         <v>9243100100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>350</v>
@@ -848,7 +838,6 @@
         <v>9543768219</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -941,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>

--- a/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
+++ b/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14401D9-D2B6-45CA-8684-16A97C0FAF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="15900" windowHeight="6600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,6 @@
     <sheet name="User" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:R20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>TestID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dentist</t>
   </si>
   <si>
-    <t>ayurveda</t>
-  </si>
-  <si>
     <t>Book My Appointment</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Dr.Rashmi</t>
   </si>
   <si>
-    <t>Nose Doctor</t>
-  </si>
-  <si>
     <t>Doctor Email</t>
   </si>
   <si>
@@ -220,12 +214,42 @@
   </si>
   <si>
     <t>Basavangudi</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Ayurveda</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>Gynecologist/Obstetrician</t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Ear-Nose-Throat (Ent) Specialist</t>
+  </si>
+  <si>
+    <t>Demo test</t>
+  </si>
+  <si>
+    <t>Bones Specialist demo</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,18 +574,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -628,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>8746537628</v>
@@ -643,27 +667,33 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>8895673421</v>
@@ -672,42 +702,13 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25"/>
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -715,11 +716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +730,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
@@ -743,124 +744,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2">
+        <v>9937805564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I3">
-        <v>9937805564</v>
+        <v>9243100100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="I4">
-        <v>9243100100</v>
+        <v>9543768219</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>350</v>
-      </c>
-      <c r="I5">
-        <v>9543768219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -886,25 +919,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,48 +948,48 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
+++ b/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16440" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>TestID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dentist</t>
   </si>
   <si>
-    <t>ayurveda</t>
-  </si>
-  <si>
     <t>Book My Appointment</t>
   </si>
   <si>
@@ -174,12 +171,6 @@
     <t>Mb. No</t>
   </si>
   <si>
-    <t>Dr.Rashmi</t>
-  </si>
-  <si>
-    <t>Nose Doctor</t>
-  </si>
-  <si>
     <t>Doctor Email</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>rashmi1234</t>
   </si>
   <si>
-    <t>Dr.John</t>
-  </si>
-  <si>
     <t>john33@gmail.com</t>
   </si>
   <si>
@@ -226,6 +214,30 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Gynecologist/Obstetrician</t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Ayurveda</t>
+  </si>
+  <si>
+    <t>Ear-Nose-Throat (Ent) Specialist</t>
+  </si>
+  <si>
+    <t>Demo test</t>
+  </si>
+  <si>
+    <t>Bones Specialist demo</t>
+  </si>
+  <si>
+    <t>Anuj</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -285,6 +297,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,25 +619,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>8746537628</v>
@@ -651,27 +669,27 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>8895673421</v>
@@ -680,7 +698,7 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -695,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +726,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
@@ -722,62 +740,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -794,19 +808,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -817,19 +831,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>350</v>
@@ -838,6 +849,38 @@
         <v>9543768219</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -875,25 +918,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,42 +947,42 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
+++ b/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="User" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>TestID</t>
   </si>
@@ -238,6 +237,21 @@
   </si>
   <si>
     <t>Anuj</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>2022-08-16 / 3:30 PM</t>
+  </si>
+  <si>
+    <t>Appointement Date/Time</t>
+  </si>
+  <si>
+    <t>Sarita Pandey</t>
   </si>
 </sst>
 </file>
@@ -576,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,9 +617,10 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +654,11 @@
       <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -675,7 +693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -699,6 +717,17 @@
       </c>
       <c r="J3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +799,6 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
@@ -850,11 +878,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>67</v>
       </c>
@@ -879,8 +913,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>

--- a/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
+++ b/Hospital_Management_System/src/test/resources/Sdet37TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FF8A7-D18D-462B-A5FB-48CA8DE47280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16440" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,6 @@
     <sheet name="User" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>TestID</t>
   </si>
@@ -238,12 +238,51 @@
   </si>
   <si>
     <t>Anuj</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>rashes</t>
+  </si>
+  <si>
+    <t>PatientDrpDwn</t>
+  </si>
+  <si>
+    <t>Add Patient</t>
+  </si>
+  <si>
+    <t>Manage Patient</t>
+  </si>
+  <si>
+    <t>rahul123</t>
+  </si>
+  <si>
+    <t>pooja@gmail.com</t>
+  </si>
+  <si>
+    <t>pooja123</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Silkbord</t>
+  </si>
+  <si>
+    <t>HeatBoils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,18 +615,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,22 +740,84 @@
         <v>60</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>9535929255</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>9999900000</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{7B5DF79F-F825-4647-BC95-CA7E660E6848}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{FB672600-A69B-4076-ABDF-1F570109DBC7}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{28E1051E-4661-4A6A-B284-844BF0AB0086}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{EC8AA328-EF41-424D-8C0E-0F2C26925CFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,9 +831,12 @@
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,9 +873,11 @@
       <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -805,8 +911,11 @@
       <c r="L3" s="5">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
@@ -828,8 +937,11 @@
       <c r="I4">
         <v>9243100100</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
@@ -849,50 +961,48 @@
         <v>9543768219</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -987,8 +1097,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
